--- a/tinteressa/Pla_Viabilitat_Financera.xlsx
+++ b/tinteressa/Pla_Viabilitat_Financera.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr codeName="AquestLlibreDeTreball"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubAsencat\asencat\tinteressa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CE5AC4-6D18-4FEB-80DD-E4B6F3EEB093}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C7781E-0F9E-431D-B0B1-2E5E03897763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="600" windowWidth="15045" windowHeight="10320" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="915" windowWidth="12390" windowHeight="7785" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INSTRUCCIONS" sheetId="13" r:id="rId1"/>
+    <sheet name="INSTRUCCIONS" sheetId="14" r:id="rId1"/>
     <sheet name="Inversió inicial" sheetId="1" r:id="rId2"/>
     <sheet name="Ingressos" sheetId="3" r:id="rId3"/>
     <sheet name="Despeses fixes" sheetId="4" r:id="rId4"/>
@@ -896,14 +896,21 @@
     <t>L'autor d'aquest llibre Excel no es fa responsable de les decisions preses en base als diferents escenaris que pugui mostrar aquest Excel.</t>
   </si>
   <si>
+    <t>LES CASELLES BLAVES I GROGUES SÓN PER A L'ENTRADA DE TEXTOS O XIFRES, LES ALTRES LES OMPLE AUTOMÀTICAMENT EL PROGRAMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER A MAJOR COMODITAT, IMPRIMIU AQUESTES INSTRUCCIONS ABANS DE COMENÇAR A INTRODUIR DADES </t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>4.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -911,7 +918,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la casella I21, posar l'aportació Inicial que es desemborsarà per a l'inici de l'activitat empresarial, que constituirà el Capital Propi de l'empresa.</t>
+      <t xml:space="preserve"> A la columna C, relacionar els components de les immobilitzacions materials i intangibles, de la existències i de les despeses d'establiment. A les columnes D, E I F, posar el seu preu de cost, anys d'amortització i % d'IVA. Si és empresari autònom o societat civil (SCP) que vengui al detall i tributi per estimació objectiva (mòduls), el circulant portarà a més recàrrec d'equivalència.</t>
     </r>
   </si>
   <si>
@@ -931,7 +938,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A les caselles I9 a I15, posar les característiques del préstec que se sol·licita. A la casella I17, apareix automàticament la quota mensual a satisfer un cop finalitzada la carència, si n'hi hagués. El programa no permet el càlcul per a terminis de carència superiors als 48 mesos</t>
+      <t xml:space="preserve"> A les caselles M11 a M17, posar les característiques del préstec que se sol·licita. A la casella M19, apareix automàticament la quota mensual a satisfer un cop finalitzada la carència, si n'hi hagués. El programa no permet el càlcul per a terminis de carència superiors als 48 mesos.</t>
     </r>
   </si>
   <si>
@@ -951,7 +958,26 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A les caselles M9 a M13, posar les característiques de l'arrendament financer (lísing) que es contracti. A la casella M17 apareix automàticament la quota mensual.</t>
+      <t xml:space="preserve"> A les caselles Q11 a Q15, posar les característiques de l'arrendament financer (lísing) que es contracti. A la casella Q19 apareix automàticament la quota mensual.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A la casella M23, posar l'aportació Inicial que es desemborsarà per a l'inici de l'activitat empresarial, que constituirà el Capital Propi de l'empresa.</t>
     </r>
   </si>
   <si>
@@ -971,7 +997,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la casella B40, apareixerà la tresoreria resultant. (Capital Propi + Préstec - Actiu Fix - Actiu Circulant - IVA - Recàrrec d'Equivalència si n'hi ha) Si la tresoreria resulta negativa, s'haurà de disminuir la inversió en actius o augmentar el Capital propi o l'import del préstec.</t>
+      <t xml:space="preserve"> A la casella D43, apareixerà la tresoreria resultant. (Capital Propi + Préstec - Actiu Fix - Actiu Circulant - IVA - Recàrrec d'Equivalència si n'hi ha) Si la tresoreria resulta negativa, s'haurà de disminuir la inversió en actius o augmentar el Capital propi o l'import del préstec.</t>
     </r>
   </si>
   <si>
@@ -990,7 +1016,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la casella H40, es posarà el tant per cent d'IRPF o IS (Impost de Societats) que es prevegi que s’haurà de pagar.</t>
+      <t xml:space="preserve"> A la casella L43, es posarà el tant per cent d'IRPF o IS (Impost de Societats) que es prevegi que s’haurà de pagar.</t>
     </r>
   </si>
   <si>
@@ -1010,7 +1036,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Si l'estimació de les vendes s'ha de fer per dia, a la casella E8 es posarà el nombre mitjà de dies que es treballen per mes.</t>
+      <t xml:space="preserve"> Si l'estimació de les vendes s'ha de fer per dia, a la casella G10 es posarà el nombre mitjà de dies que es treballen per mes.</t>
     </r>
   </si>
   <si>
@@ -1030,7 +1056,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la columna A, files 12 a 36, ​​posar els productes o famílies de productes a comercialitzar. A la columna B el seu cost directe unitari i a la columna C el seu preu de venda mitjà.</t>
+      <t xml:space="preserve"> A la columna C, files 14a 38, ​​posar els productes o famílies de productes a comercialitzar. A la columna D el seu cost directe unitari i a la columna E el seu preu de venda mitjà.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> En una de les columnes F, G i H, es posarà la quantitat diària, setmanal o mensual que s'estimi vendre un cop passats els primers mesos d'introducció al mercat.</t>
     </r>
   </si>
   <si>
@@ -1050,7 +1096,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> En les caselles L43 i M43, posar el % d'increment de l'IPC que s'estimi per al segon i tercer any. Afectarà tots els preus que s'incloguin en el sistema.</t>
+      <t xml:space="preserve"> En les caselles P46 i Q46, posar el % d'increment de l'IPC que s'estimi per al segon i tercer any. Afectarà tots els preus que s'incloguin en el sistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A la columna O, files 11 a 22, incloure el % que s'estima vendre durant els dotze primers mesos, sobre la xifra total de vendes mensuals que apareix a la casella J39.</t>
     </r>
   </si>
   <si>
@@ -1070,7 +1136,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la casella L21, posar el % d'increment de vendes per al segon any, (augment de l'IPC a part) referit a la casella K22 on apareix el total del primer any.</t>
+      <t xml:space="preserve"> A la casella P22, posar el % d'increment de vendes per al segon any, (augment de l'IPC a part) referit a la casella O23 on apareix el total del primer any.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Fer el mateix a la casella Q22, per obtenir la xifra de vendes del tercer any, (augment de l'IPC a part) per increment en % respecte de la casella P24.</t>
     </r>
   </si>
   <si>
@@ -1090,27 +1176,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la columna O, files 43 a 45, posar conceptes de despeses directes que siguin percentatges de la xifra total de vendes (comissions, transports, etc.) En les columnes P, Q i R, posar els percentatges per als tres primers anys.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Fer el mateix a la casella M21, per obtenir la xifra de vendes del tercer any, (augment de l'IPC a part) per increment en % respecte de la casella L22.</t>
+      <t xml:space="preserve"> A la columna U, files 46 a 48, posar conceptes de despeses directes que siguin percentatges de la xifra total de vendes (comissions, transports, etc.) En les columnes V, W i X, posar els percentatges per als tres primers anys.</t>
     </r>
   </si>
   <si>
@@ -1130,7 +1196,27 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A la columna P, files 10 a 21, està formulat el mateix percentatge que a la columna K de vendes, per distribuir els costos directes per mesos. Canviar només en el cas d'una estimació de la distribució per mesos diferents a la de les vendes.</t>
+      <t xml:space="preserve"> A la columna V, files 11 a 22, està formulat el mateix percentatge que a la columna O de vendes, per distribuir els costos directes per mesos. Canviar només en el cas d'una estimació de la distribució per mesos diferents a la de les vendes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> A les caselles W22 i X22, posar la variació en el cost del material, per al segon i tercer any, (IPC a part) sobre l'indicat a la columna D, files 14 a 38 només en el cas que sigui diferent a la de les vendes.</t>
     </r>
   </si>
   <si>
@@ -1150,27 +1236,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> En les columnes B a F de les files 43 i 44, indicar els % del total de Cobraments i Pagaments que es faran al comptat, o fins a 30, 60, 90 i 120 dies respectivament.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A les caselles Q21 i R21, posar la variació en el cost del material, per al segon i tercer any, (IPC a part) sobre l'indicat a la columna B, files 12 a l'36 només en el cas que sigui diferent a la de les vendes.</t>
+      <t xml:space="preserve"> En les columnes E, F, G i H de les files 46 i 47, indicar els % del total de Cobraments i Pagaments que es faran al comptat, o fins a 30, 60, 90 i 120 dies respectivament.</t>
     </r>
   </si>
   <si>
@@ -1190,7 +1256,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> A les files 10 a 38 de la columna B, es relacionen despeses fixes habituals en la majoria d'empreses. A les files següents poden afegir-s’hi altres conceptes. En una de les columnes C o D, posar el seu import anual o mensual. Aquest import quedarà copiat en els dos anys següents.</t>
+      <t xml:space="preserve"> A les files 12 a 40 de la columna C, es relacionen despeses fixes habituals en la majoria d'empreses. A les files següents (41 A 44) s'hi poden afegir altres conceptes. En una de les columnes D o E, posar el seu import anual o mensual. Aquest import quedarà copiat en els dos anys següents.</t>
     </r>
   </si>
   <si>
@@ -1210,74 +1276,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> En les columnes F o G, i I o J es pot modificar, afegir o eliminar qualsevol import. A la fila 43 surten les sumes a valor actual i a la fila 44 afectades per l'IPC.</t>
+      <t xml:space="preserve"> En les columnes G o H, i J o k,  es pot modificar, afegir o eliminar qualsevol import. A la fila 45 surten les sumes a valor actual i a la fila 46 afectades per l'IPC.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> En una de les columnes D, E o F, es posarà la quantitat diària, setmanal o mensual que s'estimi vendre un cop passats els primers mesos d'introducció al mercat.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>5.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A la columna K, files 10 a 21, incloure el % que s'estima vendre durant els dotze primers mesos, sobre la xifra total de vendes mensuals que apareix a la casella H37.</t>
-    </r>
-  </si>
-  <si>
-    <t>LES CASELLES BLAVES I GROGUES SÓN PER A L'ENTRADA DE TEXTOS O XIFRES, LES ALTRES LES OMPLE AUTOMÀTICAMENT EL PROGRAMA</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> A la columna A, relacionar els components de les immobilitzacions materials i intangibles, de la existències i de les despeses d'establiment. A les columnes B, C i D, posar el seu preu de cost, anys d'amortització i % d'IVA. Si és empresari autònom o societat civil (SCP) que vengui al detall i tributi per estimació objectiva (mòduls), el circulant portarà a més recàrrec d'equivalència.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">PER A MAJOR COMODITAT, IMPRIMIU AQUESTES INSTRUCCIONS ABANS DE COMENÇAR A INTRODUIR DADES </t>
   </si>
 </sst>
 </file>
@@ -6792,10 +6792,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33795C0-ACAC-459C-B1C8-FBF03FCAD92D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4C151C-BD23-4E44-84A0-3D0BF668C140}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,7 +6817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752476" y="123826"/>
+          <a:off x="200026" y="123826"/>
           <a:ext cx="3048000" cy="826943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7392,14 +7392,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498AB4BB-20E9-48DB-B543-D5540C17CD31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71B633F-4CE3-487A-832C-3F4A88B64AD9}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B5:B42"/>
+  <dimension ref="B7:B42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -7408,12 +7408,9 @@
     <col min="2" max="2" width="161.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:2">
-      <c r="B5" s="55"/>
-    </row>
     <row r="7" spans="2:2" ht="30.75" customHeight="1">
       <c r="B7" s="649" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="5.25" customHeight="1">
@@ -7421,7 +7418,7 @@
     </row>
     <row r="9" spans="2:2" ht="24.75" customHeight="1">
       <c r="B9" s="650" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="5.25" customHeight="1">
@@ -7434,32 +7431,32 @@
     </row>
     <row r="12" spans="2:2" ht="45">
       <c r="B12" s="646" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="30">
       <c r="B13" s="646" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="12.75" customHeight="1">
       <c r="B14" s="652" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15">
       <c r="B15" s="652" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="30">
       <c r="B16" s="646" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15">
       <c r="B17" s="652" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="3.75" customHeight="1">
@@ -7472,57 +7469,57 @@
     </row>
     <row r="20" spans="2:2" ht="15">
       <c r="B20" s="652" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15">
       <c r="B21" s="652" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15">
       <c r="B22" s="652" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15">
       <c r="B23" s="652" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15">
       <c r="B24" s="652" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15">
       <c r="B25" s="652" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15">
       <c r="B26" s="652" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="30">
       <c r="B27" s="646" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="30">
       <c r="B28" s="646" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="30">
       <c r="B29" s="646" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="14.25" customHeight="1">
       <c r="B30" s="652" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="4.5" customHeight="1">
@@ -7535,12 +7532,12 @@
     </row>
     <row r="33" spans="2:2" ht="30">
       <c r="B33" s="646" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15">
       <c r="B34" s="652" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="4.5" customHeight="1">
@@ -7591,7 +7588,7 @@
   </sheetPr>
   <dimension ref="B2:V396"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -28578,11 +28575,6 @@
   </sheetData>
   <sheetProtection password="D3F4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="W123:Z123"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="R123:U123"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="G69:J69"/>
@@ -28593,6 +28585,11 @@
     <mergeCell ref="G96:J96"/>
     <mergeCell ref="L96:O96"/>
     <mergeCell ref="Q96:T96"/>
+    <mergeCell ref="W123:Z123"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="R123:U123"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>

--- a/tinteressa/Pla_Viabilitat_Financera.xlsx
+++ b/tinteressa/Pla_Viabilitat_Financera.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="AquestLlibreDeTreball"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\DOCUMENTS i PROGRAMES\ASENCAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubAsencat\asencat\tinteressa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA04A90-D4A1-48DA-8C4A-564E74357C06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB378C5-A1B3-4AAA-8065-608CA4B13B2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="420" windowWidth="16320" windowHeight="9615" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruccions entrada dades" sheetId="11" r:id="rId1"/>
@@ -7225,7 +7225,7 @@
   </sheetPr>
   <dimension ref="A1:V455"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9077,8 +9077,8 @@
   </sheetPr>
   <dimension ref="B2:V396"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9383,17 +9383,13 @@
       <c r="L13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="M13" s="706">
-        <v>5.2299999999999999E-2</v>
-      </c>
+      <c r="M13" s="706"/>
       <c r="N13" s="7"/>
       <c r="O13" s="133"/>
       <c r="P13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="706">
-        <v>2.5600000000000001E-2</v>
-      </c>
+      <c r="Q13" s="706"/>
       <c r="R13" s="7"/>
       <c r="S13" s="109"/>
       <c r="U13" s="4"/>
@@ -22938,7 +22934,7 @@
       </c>
       <c r="B63" s="635">
         <f>+'Inversió inicial'!M13</f>
-        <v>5.2299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C63" s="615"/>
       <c r="D63" s="615"/>
@@ -24958,7 +24954,7 @@
       <c r="A90" s="634"/>
       <c r="B90" s="642">
         <f>B63</f>
-        <v>5.2299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z90" s="614"/>
       <c r="AA90" s="614"/>
@@ -26514,7 +26510,7 @@
       </c>
       <c r="B117" s="646">
         <f>B63</f>
-        <v>5.2299999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ117" s="614"/>
     </row>
@@ -27514,7 +27510,7 @@
       </c>
       <c r="B147" s="650">
         <f>'Inversió inicial'!Q13</f>
-        <v>2.5600000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
@@ -30074,11 +30070,6 @@
   </sheetData>
   <sheetProtection password="D3F4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="W123:Z123"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="R123:U123"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="G69:J69"/>
@@ -30089,6 +30080,11 @@
     <mergeCell ref="G96:J96"/>
     <mergeCell ref="L96:O96"/>
     <mergeCell ref="Q96:T96"/>
+    <mergeCell ref="W123:Z123"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="R123:U123"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
